--- a/exercisesLifeContingencies/survivalModels/lifeTables3/TV7377_comm.xlsx
+++ b/exercisesLifeContingencies/survivalModels/lifeTables3/TV7377_comm.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K108"/>
+  <dimension ref="A1:L108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -480,15 +480,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Sx</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Cx</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Mx</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Rx</t>
         </is>
@@ -520,12 +525,15 @@
         <v>2421376.148182647</v>
       </c>
       <c r="I2" t="n">
+        <v>53356213.32372905</v>
+      </c>
+      <c r="J2" t="n">
         <v>1123.076923076923</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>6870.148146821044</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>369214.0972699865</v>
       </c>
     </row>
@@ -555,12 +563,15 @@
         <v>2321376.148182647</v>
       </c>
       <c r="I3" t="n">
+        <v>50934837.17554642</v>
+      </c>
+      <c r="J3" t="n">
         <v>88.75739523816566</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>5747.07122374412</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>362343.9491231654</v>
       </c>
     </row>
@@ -590,12 +601,15 @@
         <v>2226345.378951878</v>
       </c>
       <c r="I4" t="n">
+        <v>48613461.02736376</v>
+      </c>
+      <c r="J4" t="n">
         <v>52.45078772401199</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>5658.313828505955</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>356596.8778994213</v>
       </c>
     </row>
@@ -625,12 +639,15 @@
         <v>2135058.396702146</v>
       </c>
       <c r="I5" t="n">
+        <v>46387115.64841188</v>
+      </c>
+      <c r="J5" t="n">
         <v>39.32099323961623</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>5605.863040781943</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>350938.5640709153</v>
       </c>
     </row>
@@ -660,12 +677,15 @@
         <v>2047334.903018973</v>
       </c>
       <c r="I6" t="n">
+        <v>44252057.25170975</v>
+      </c>
+      <c r="J6" t="n">
         <v>31.23322951897845</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>5566.542047542327</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>345332.7010301334</v>
       </c>
     </row>
@@ -695,12 +715,15 @@
         <v>1963024.710855317</v>
       </c>
       <c r="I7" t="n">
+        <v>42204722.34869077</v>
+      </c>
+      <c r="J7" t="n">
         <v>26.87069632069123</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>5535.308818023349</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>339766.1589825911</v>
       </c>
     </row>
@@ -730,12 +753,15 @@
         <v>1881988.451619781</v>
       </c>
       <c r="I8" t="n">
+        <v>40241697.63783546</v>
+      </c>
+      <c r="J8" t="n">
         <v>23.55745130509213</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>5508.438121702658</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>334230.8501645677</v>
       </c>
     </row>
@@ -765,12 +791,15 @@
         <v>1804095.842281933</v>
       </c>
       <c r="I9" t="n">
+        <v>38359709.18621568</v>
+      </c>
+      <c r="J9" t="n">
         <v>21.19001770734603</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>5484.880670397565</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>328722.4120428651</v>
       </c>
     </row>
@@ -800,12 +829,15 @@
         <v>1729222.659985307</v>
       </c>
       <c r="I10" t="n">
+        <v>36555613.34393375</v>
+      </c>
+      <c r="J10" t="n">
         <v>18.96984476506588</v>
       </c>
-      <c r="J10" t="n">
+      <c r="K10" t="n">
         <v>5463.690652690218</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>323237.5313724675</v>
       </c>
     </row>
@@ -835,12 +867,15 @@
         <v>1657250.405487027</v>
       </c>
       <c r="I11" t="n">
+        <v>34826390.68394843</v>
+      </c>
+      <c r="J11" t="n">
         <v>16.88910586029814</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>5444.720807925152</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>317773.8407197773</v>
       </c>
     </row>
@@ -870,12 +905,15 @@
         <v>1588065.284468063</v>
       </c>
       <c r="I12" t="n">
+        <v>33169140.2784614</v>
+      </c>
+      <c r="J12" t="n">
         <v>14.94035843952024</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>5427.831702064856</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>312329.1199118521</v>
       </c>
     </row>
@@ -905,12 +943,15 @@
         <v>1521558.018747995</v>
       </c>
       <c r="I13" t="n">
+        <v>31581074.99399334</v>
+      </c>
+      <c r="J13" t="n">
         <v>14.36572958286288</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>5412.891343625334</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>306901.2882097873</v>
       </c>
     </row>
@@ -940,12 +981,15 @@
         <v>1457623.665144832</v>
       </c>
       <c r="I14" t="n">
+        <v>30059516.97524535</v>
+      </c>
+      <c r="J14" t="n">
         <v>13.21263204152754</v>
       </c>
-      <c r="J14" t="n">
+      <c r="K14" t="n">
         <v>5398.525614042473</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>301488.396866162</v>
       </c>
     </row>
@@ -975,12 +1019,15 @@
         <v>1396162.690871372</v>
       </c>
       <c r="I15" t="n">
+        <v>28601893.31010051</v>
+      </c>
+      <c r="J15" t="n">
         <v>14.43687857941169</v>
       </c>
-      <c r="J15" t="n">
+      <c r="K15" t="n">
         <v>5385.312982000945</v>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>296089.8712521194</v>
       </c>
     </row>
@@ -1010,12 +1057,15 @@
         <v>1337078.812855857</v>
       </c>
       <c r="I16" t="n">
+        <v>27205730.61922914</v>
+      </c>
+      <c r="J16" t="n">
         <v>16.65793290998358</v>
       </c>
-      <c r="J16" t="n">
+      <c r="K16" t="n">
         <v>5370.876103421533</v>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>290704.5582701184</v>
       </c>
     </row>
@@ -1045,12 +1095,15 @@
         <v>1280281.828565672</v>
       </c>
       <c r="I17" t="n">
+        <v>25868651.80637328</v>
+      </c>
+      <c r="J17" t="n">
         <v>20.28851274512504</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>5354.21817051155</v>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>285333.682166697</v>
       </c>
     </row>
@@ -1080,12 +1133,15 @@
         <v>1225686.001604173</v>
       </c>
       <c r="I18" t="n">
+        <v>24588369.97780761</v>
+      </c>
+      <c r="J18" t="n">
         <v>24.12854334415011</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>5333.929657766424</v>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>279979.4639961854</v>
       </c>
     </row>
@@ -1115,12 +1171,15 @@
         <v>1173210.302653938</v>
       </c>
       <c r="I19" t="n">
+        <v>23362683.97620344</v>
+      </c>
+      <c r="J19" t="n">
         <v>28.13680131795176</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>5309.801114422274</v>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>274645.5343384189</v>
       </c>
     </row>
@@ -1150,12 +1209,15 @@
         <v>1122777.028360518</v>
       </c>
       <c r="I20" t="n">
+        <v>22189473.6735495</v>
+      </c>
+      <c r="J20" t="n">
         <v>29.90247371935184</v>
       </c>
-      <c r="J20" t="n">
+      <c r="K20" t="n">
         <v>5281.664313104322</v>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>269335.7332239967</v>
       </c>
     </row>
@@ -1185,12 +1247,15 @@
         <v>1074311.632187393</v>
       </c>
       <c r="I21" t="n">
+        <v>21066696.64518898</v>
+      </c>
+      <c r="J21" t="n">
         <v>29.20876529993665</v>
       </c>
-      <c r="J21" t="n">
+      <c r="K21" t="n">
         <v>5251.76183938497</v>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>264054.0689108924</v>
       </c>
     </row>
@@ -1220,12 +1285,15 @@
         <v>1027740.192186955</v>
       </c>
       <c r="I22" t="n">
+        <v>19992385.01300159</v>
+      </c>
+      <c r="J22" t="n">
         <v>27.20768332837745</v>
       </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
         <v>5222.553074085034</v>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>258802.3070715074</v>
       </c>
     </row>
@@ -1255,12 +1323,15 @@
         <v>982989.1701826022</v>
       </c>
       <c r="I23" t="n">
+        <v>18964644.82081464</v>
+      </c>
+      <c r="J23" t="n">
         <v>25.73927678765811</v>
       </c>
-      <c r="J23" t="n">
+      <c r="K23" t="n">
         <v>5195.345390756657</v>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>253579.7539974224</v>
       </c>
     </row>
@@ -1290,12 +1361,15 @@
         <v>939986.5490155915</v>
       </c>
       <c r="I24" t="n">
+        <v>17981655.65063203</v>
+      </c>
+      <c r="J24" t="n">
         <v>23.93785171706105</v>
       </c>
-      <c r="J24" t="n">
+      <c r="K24" t="n">
         <v>5169.606113968999</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>248384.4086066657</v>
       </c>
     </row>
@@ -1325,12 +1399,15 @@
         <v>898663.6140933305</v>
       </c>
       <c r="I25" t="n">
+        <v>17041669.10161644</v>
+      </c>
+      <c r="J25" t="n">
         <v>22.62704543449813</v>
       </c>
-      <c r="J25" t="n">
+      <c r="K25" t="n">
         <v>5145.668262251937</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>243214.8024926967</v>
       </c>
     </row>
@@ -1360,12 +1437,15 @@
         <v>858953.9606736427</v>
       </c>
       <c r="I26" t="n">
+        <v>16143005.48752311</v>
+      </c>
+      <c r="J26" t="n">
         <v>22.50700988399772</v>
       </c>
-      <c r="J26" t="n">
+      <c r="K26" t="n">
         <v>5123.041216817439</v>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>238069.1342304448</v>
       </c>
     </row>
@@ -1395,12 +1475,15 @@
         <v>820794.228661685</v>
       </c>
       <c r="I27" t="n">
+        <v>15284051.52684947</v>
+      </c>
+      <c r="J27" t="n">
         <v>21.28066507477024</v>
       </c>
-      <c r="J27" t="n">
+      <c r="K27" t="n">
         <v>5100.534206933441</v>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>232946.0930136273</v>
       </c>
     </row>
@@ -1430,12 +1513,15 @@
         <v>784124.6856600713</v>
       </c>
       <c r="I28" t="n">
+        <v>14463257.29818778</v>
+      </c>
+      <c r="J28" t="n">
         <v>20.80899365122703</v>
       </c>
-      <c r="J28" t="n">
+      <c r="K28" t="n">
         <v>5079.25354185867</v>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>227845.5588066939</v>
       </c>
     </row>
@@ -1465,12 +1551,15 @@
         <v>748886.7903620561</v>
       </c>
       <c r="I29" t="n">
+        <v>13679132.61252771</v>
+      </c>
+      <c r="J29" t="n">
         <v>20.34212730258639</v>
       </c>
-      <c r="J29" t="n">
+      <c r="K29" t="n">
         <v>5058.444548207444</v>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>222766.3052648352</v>
       </c>
     </row>
@@ -1500,12 +1589,15 @@
         <v>715025.0077230004</v>
       </c>
       <c r="I30" t="n">
+        <v>12930245.82216565</v>
+      </c>
+      <c r="J30" t="n">
         <v>21.1629943965502</v>
       </c>
-      <c r="J30" t="n">
+      <c r="K30" t="n">
         <v>5038.102420904858</v>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>217707.8607166278</v>
       </c>
     </row>
@@ -1535,12 +1627,15 @@
         <v>682485.9434665953</v>
       </c>
       <c r="I31" t="n">
+        <v>12215220.81444265</v>
+      </c>
+      <c r="J31" t="n">
         <v>21.58230820172959</v>
       </c>
-      <c r="J31" t="n">
+      <c r="K31" t="n">
         <v>5016.939426508308</v>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>212669.7582957229</v>
       </c>
     </row>
@@ -1570,12 +1665,15 @@
         <v>651219.5446759871</v>
       </c>
       <c r="I32" t="n">
+        <v>11532734.87097606</v>
+      </c>
+      <c r="J32" t="n">
         <v>21.34513740591238</v>
       </c>
-      <c r="J32" t="n">
+      <c r="K32" t="n">
         <v>4995.357118306578</v>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>207652.8188692147</v>
       </c>
     </row>
@@ -1605,12 +1703,15 @@
         <v>621177.2819932194</v>
       </c>
       <c r="I33" t="n">
+        <v>10881515.32630007</v>
+      </c>
+      <c r="J33" t="n">
         <v>21.94946269869954</v>
       </c>
-      <c r="J33" t="n">
+      <c r="K33" t="n">
         <v>4974.011980900666</v>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>202657.461750908</v>
       </c>
     </row>
@@ -1640,12 +1741,15 @@
         <v>592311.8360895026</v>
       </c>
       <c r="I34" t="n">
+        <v>10260338.04430685</v>
+      </c>
+      <c r="J34" t="n">
         <v>22.47572243672388</v>
       </c>
-      <c r="J34" t="n">
+      <c r="K34" t="n">
         <v>4952.062518201967</v>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>197683.4497700074</v>
       </c>
     </row>
@@ -1675,12 +1779,15 @@
         <v>564578.5491063197</v>
       </c>
       <c r="I35" t="n">
+        <v>9668026.208217349</v>
+      </c>
+      <c r="J35" t="n">
         <v>23.19258423507811</v>
       </c>
-      <c r="J35" t="n">
+      <c r="K35" t="n">
         <v>4929.586795765241</v>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>192731.3872518054</v>
       </c>
     </row>
@@ -1710,12 +1817,15 @@
         <v>537934.4027295421</v>
       </c>
       <c r="I36" t="n">
+        <v>9103447.659111029</v>
+      </c>
+      <c r="J36" t="n">
         <v>24.07446886619856</v>
       </c>
-      <c r="J36" t="n">
+      <c r="K36" t="n">
         <v>4906.394211530163</v>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>187801.8004560402</v>
       </c>
     </row>
@@ -1745,12 +1855,15 @@
         <v>512338.2237976448</v>
       </c>
       <c r="I37" t="n">
+        <v>8565513.256381489</v>
+      </c>
+      <c r="J37" t="n">
         <v>25.09787913856806</v>
       </c>
-      <c r="J37" t="n">
+      <c r="K37" t="n">
         <v>4882.319742663965</v>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>182895.40624451</v>
       </c>
     </row>
@@ -1780,12 +1893,15 @@
         <v>487750.5877550714</v>
       </c>
       <c r="I38" t="n">
+        <v>8053175.032583844</v>
+      </c>
+      <c r="J38" t="n">
         <v>25.772652238626</v>
       </c>
-      <c r="J38" t="n">
+      <c r="K38" t="n">
         <v>4857.221863525398</v>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>178013.086501846</v>
       </c>
     </row>
@@ -1815,12 +1931,15 @@
         <v>464133.7279009663</v>
       </c>
       <c r="I39" t="n">
+        <v>7565424.444828771</v>
+      </c>
+      <c r="J39" t="n">
         <v>27.25953797152454</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>4831.449211286772</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>173155.8646383206</v>
       </c>
     </row>
@@ -1850,12 +1969,15 @@
         <v>441450.9814627193</v>
       </c>
       <c r="I40" t="n">
+        <v>7101290.716927806</v>
+      </c>
+      <c r="J40" t="n">
         <v>28.16067787217666</v>
       </c>
-      <c r="J40" t="n">
+      <c r="K40" t="n">
         <v>4804.189673315247</v>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>168324.4154270339</v>
       </c>
     </row>
@@ -1885,12 +2007,15 @@
         <v>419667.9078869918</v>
       </c>
       <c r="I41" t="n">
+        <v>6659839.735465087</v>
+      </c>
+      <c r="J41" t="n">
         <v>29.57704422303648</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>4776.028995443071</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>163520.2257537186</v>
       </c>
     </row>
@@ -1920,12 +2045,15 @@
         <v>398750.8055112797</v>
       </c>
       <c r="I42" t="n">
+        <v>6240171.827578095</v>
+      </c>
+      <c r="J42" t="n">
         <v>31.24335721279999</v>
       </c>
-      <c r="J42" t="n">
+      <c r="K42" t="n">
         <v>4746.451951220033</v>
       </c>
-      <c r="K42" t="n">
+      <c r="L42" t="n">
         <v>158744.1967582756</v>
       </c>
     </row>
@@ -1955,12 +2083,15 @@
         <v>378667.7841173181</v>
       </c>
       <c r="I43" t="n">
+        <v>5841421.022066814</v>
+      </c>
+      <c r="J43" t="n">
         <v>32.54516257534891</v>
       </c>
-      <c r="J43" t="n">
+      <c r="K43" t="n">
         <v>4715.208594007234</v>
       </c>
-      <c r="K43" t="n">
+      <c r="L43" t="n">
         <v>153997.7448070555</v>
       </c>
     </row>
@@ -1990,12 +2121,15 @@
         <v>359388.4299803372</v>
       </c>
       <c r="I44" t="n">
+        <v>5462753.237949496</v>
+      </c>
+      <c r="J44" t="n">
         <v>34.07094980763799</v>
       </c>
-      <c r="J44" t="n">
+      <c r="K44" t="n">
         <v>4682.663431431885</v>
       </c>
-      <c r="K44" t="n">
+      <c r="L44" t="n">
         <v>149282.5362130483</v>
       </c>
     </row>
@@ -2025,12 +2159,15 @@
         <v>340883.1346265846</v>
       </c>
       <c r="I45" t="n">
+        <v>5103364.80796916</v>
+      </c>
+      <c r="J45" t="n">
         <v>36.14340843840662</v>
       </c>
-      <c r="J45" t="n">
+      <c r="K45" t="n">
         <v>4648.592481624246</v>
       </c>
-      <c r="K45" t="n">
+      <c r="L45" t="n">
         <v>144599.8727816164</v>
       </c>
     </row>
@@ -2060,12 +2197,15 @@
         <v>323123.65235163</v>
       </c>
       <c r="I46" t="n">
+        <v>4762481.673342575</v>
+      </c>
+      <c r="J46" t="n">
         <v>38.00604824162556</v>
       </c>
-      <c r="J46" t="n">
+      <c r="K46" t="n">
         <v>4612.44907318584</v>
       </c>
-      <c r="K46" t="n">
+      <c r="L46" t="n">
         <v>139951.2802999922</v>
       </c>
     </row>
@@ -2095,12 +2235,15 @@
         <v>306083.3704956892</v>
       </c>
       <c r="I47" t="n">
+        <v>4439358.020990945</v>
+      </c>
+      <c r="J47" t="n">
         <v>39.5073259082116</v>
       </c>
-      <c r="J47" t="n">
+      <c r="K47" t="n">
         <v>4574.443024944216</v>
       </c>
-      <c r="K47" t="n">
+      <c r="L47" t="n">
         <v>135338.8312268063</v>
       </c>
     </row>
@@ -2130,12 +2273,15 @@
         <v>289736.4901439877</v>
       </c>
       <c r="I48" t="n">
+        <v>4133274.650495256</v>
+      </c>
+      <c r="J48" t="n">
         <v>41.47002998589453</v>
       </c>
-      <c r="J48" t="n">
+      <c r="K48" t="n">
         <v>4534.935699036003</v>
       </c>
-      <c r="K48" t="n">
+      <c r="L48" t="n">
         <v>130764.3882018621</v>
       </c>
     </row>
@@ -2165,12 +2311,15 @@
         <v>274057.8432855675</v>
       </c>
       <c r="I49" t="n">
+        <v>3843538.160351268</v>
+      </c>
+      <c r="J49" t="n">
         <v>43.37550738843688</v>
       </c>
-      <c r="J49" t="n">
+      <c r="K49" t="n">
         <v>4493.46566905011</v>
       </c>
-      <c r="K49" t="n">
+      <c r="L49" t="n">
         <v>126229.4525028261</v>
       </c>
     </row>
@@ -2200,12 +2349,15 @@
         <v>259023.6913363033</v>
       </c>
       <c r="I50" t="n">
+        <v>3569480.317065701</v>
+      </c>
+      <c r="J50" t="n">
         <v>45.36574739997285</v>
       </c>
-      <c r="J50" t="n">
+      <c r="K50" t="n">
         <v>4450.090161661672</v>
       </c>
-      <c r="K50" t="n">
+      <c r="L50" t="n">
         <v>121735.986833776</v>
       </c>
     </row>
@@ -2235,12 +2387,15 @@
         <v>244611.1515078606</v>
       </c>
       <c r="I51" t="n">
+        <v>3310456.625729397</v>
+      </c>
+      <c r="J51" t="n">
         <v>46.716588555504</v>
       </c>
-      <c r="J51" t="n">
+      <c r="K51" t="n">
         <v>4404.724414261698</v>
       </c>
-      <c r="K51" t="n">
+      <c r="L51" t="n">
         <v>117285.8966721143</v>
       </c>
     </row>
@@ -2270,12 +2425,15 @@
         <v>230798.3058817581</v>
       </c>
       <c r="I52" t="n">
+        <v>3065845.474221537</v>
+      </c>
+      <c r="J52" t="n">
         <v>47.89640901109422</v>
       </c>
-      <c r="J52" t="n">
+      <c r="K52" t="n">
         <v>4358.007825706194</v>
       </c>
-      <c r="K52" t="n">
+      <c r="L52" t="n">
         <v>112881.1722578526</v>
       </c>
     </row>
@@ -2305,12 +2463,15 @@
         <v>217563.4401375228</v>
       </c>
       <c r="I53" t="n">
+        <v>2835047.168339779</v>
+      </c>
+      <c r="J53" t="n">
         <v>49.43675459800586</v>
       </c>
-      <c r="J53" t="n">
+      <c r="K53" t="n">
         <v>4310.111416695099</v>
       </c>
-      <c r="K53" t="n">
+      <c r="L53" t="n">
         <v>108523.1644321464</v>
       </c>
     </row>
@@ -2340,12 +2501,15 @@
         <v>204885.5041001537</v>
       </c>
       <c r="I54" t="n">
+        <v>2617483.728202256</v>
+      </c>
+      <c r="J54" t="n">
         <v>51.53831708245677</v>
       </c>
-      <c r="J54" t="n">
+      <c r="K54" t="n">
         <v>4260.674662097095</v>
       </c>
-      <c r="K54" t="n">
+      <c r="L54" t="n">
         <v>104213.0530154513</v>
       </c>
     </row>
@@ -2375,12 +2539,15 @@
         <v>192744.6177418969</v>
       </c>
       <c r="I55" t="n">
+        <v>2412598.224102103</v>
+      </c>
+      <c r="J55" t="n">
         <v>53.5253711435016</v>
       </c>
-      <c r="J55" t="n">
+      <c r="K55" t="n">
         <v>4209.136345014638</v>
       </c>
-      <c r="K55" t="n">
+      <c r="L55" t="n">
         <v>99952.37835335422</v>
       </c>
     </row>
@@ -2410,12 +2577,15 @@
         <v>181122.2268683477</v>
       </c>
       <c r="I56" t="n">
+        <v>2219853.606360205</v>
+      </c>
+      <c r="J56" t="n">
         <v>55.28333507131919</v>
       </c>
-      <c r="J56" t="n">
+      <c r="K56" t="n">
         <v>4155.610973871137</v>
       </c>
-      <c r="K56" t="n">
+      <c r="L56" t="n">
         <v>95743.2420083396</v>
       </c>
     </row>
@@ -2445,12 +2615,15 @@
         <v>170000.3763995401</v>
       </c>
       <c r="I57" t="n">
+        <v>2038731.379491858</v>
+      </c>
+      <c r="J57" t="n">
         <v>56.60447705308846</v>
       </c>
-      <c r="J57" t="n">
+      <c r="K57" t="n">
         <v>4100.327638799818</v>
       </c>
-      <c r="K57" t="n">
+      <c r="L57" t="n">
         <v>91587.63103446843</v>
       </c>
     </row>
@@ -2480,12 +2653,15 @@
         <v>159361.5727453733</v>
       </c>
       <c r="I58" t="n">
+        <v>1868731.003092318</v>
+      </c>
+      <c r="J58" t="n">
         <v>57.74221277326608</v>
       </c>
-      <c r="J58" t="n">
+      <c r="K58" t="n">
         <v>4043.723161746728</v>
       </c>
-      <c r="K58" t="n">
+      <c r="L58" t="n">
         <v>87487.30339566863</v>
       </c>
     </row>
@@ -2515,12 +2691,15 @@
         <v>149188.5583241891</v>
       </c>
       <c r="I59" t="n">
+        <v>1709369.430346945</v>
+      </c>
+      <c r="J59" t="n">
         <v>59.01714738561255</v>
       </c>
-      <c r="J59" t="n">
+      <c r="K59" t="n">
         <v>3985.980948973462</v>
       </c>
-      <c r="K59" t="n">
+      <c r="L59" t="n">
         <v>83443.58023392191</v>
       </c>
     </row>
@@ -2550,12 +2729,15 @@
         <v>139464.5559012084</v>
       </c>
       <c r="I60" t="n">
+        <v>1560180.872022755</v>
+      </c>
+      <c r="J60" t="n">
         <v>60.30631880872345</v>
       </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
         <v>3926.96380158785</v>
       </c>
-      <c r="K60" t="n">
+      <c r="L60" t="n">
         <v>79457.59928494845</v>
       </c>
     </row>
@@ -2585,12 +2767,15 @@
         <v>130173.5707188048</v>
       </c>
       <c r="I61" t="n">
+        <v>1420716.316121547</v>
+      </c>
+      <c r="J61" t="n">
         <v>61.59913950493497</v>
       </c>
-      <c r="J61" t="n">
+      <c r="K61" t="n">
         <v>3866.657482779126</v>
       </c>
-      <c r="K61" t="n">
+      <c r="L61" t="n">
         <v>75530.63548336059</v>
       </c>
     </row>
@@ -2620,12 +2805,15 @@
         <v>121300.2374391486</v>
       </c>
       <c r="I62" t="n">
+        <v>1290542.745402742</v>
+      </c>
+      <c r="J62" t="n">
         <v>62.97751564473587</v>
       </c>
-      <c r="J62" t="n">
+      <c r="K62" t="n">
         <v>3805.058343274191</v>
       </c>
-      <c r="K62" t="n">
+      <c r="L62" t="n">
         <v>71663.97800058147</v>
       </c>
     </row>
@@ -2655,12 +2843,15 @@
         <v>112829.7853482148</v>
       </c>
       <c r="I63" t="n">
+        <v>1169242.507963593</v>
+      </c>
+      <c r="J63" t="n">
         <v>65.30129212648684</v>
       </c>
-      <c r="J63" t="n">
+      <c r="K63" t="n">
         <v>3742.080827629455</v>
       </c>
-      <c r="K63" t="n">
+      <c r="L63" t="n">
         <v>67858.91965730727</v>
       </c>
     </row>
@@ -2690,12 +2881,15 @@
         <v>104748.0973918079</v>
       </c>
       <c r="I64" t="n">
+        <v>1056412.722615379</v>
+      </c>
+      <c r="J64" t="n">
         <v>68.62078061548895</v>
       </c>
-      <c r="J64" t="n">
+      <c r="K64" t="n">
         <v>3676.779535502968</v>
       </c>
-      <c r="K64" t="n">
+      <c r="L64" t="n">
         <v>64116.83882967781</v>
       </c>
     </row>
@@ -2725,12 +2919,15 @@
         <v>97042.5448796969</v>
       </c>
       <c r="I65" t="n">
+        <v>951664.6252235707</v>
+      </c>
+      <c r="J65" t="n">
         <v>71.91335595176331</v>
       </c>
-      <c r="J65" t="n">
+      <c r="K65" t="n">
         <v>3608.158754887479</v>
       </c>
-      <c r="K65" t="n">
+      <c r="L65" t="n">
         <v>60440.05929417485</v>
       </c>
     </row>
@@ -2760,12 +2957,15 @@
         <v>89701.98055251337</v>
       </c>
       <c r="I66" t="n">
+        <v>854622.0803438739</v>
+      </c>
+      <c r="J66" t="n">
         <v>75.16367678822851</v>
       </c>
-      <c r="J66" t="n">
+      <c r="K66" t="n">
         <v>3536.245398935715</v>
       </c>
-      <c r="K66" t="n">
+      <c r="L66" t="n">
         <v>56831.90053928737</v>
       </c>
     </row>
@@ -2795,12 +2995,15 @@
         <v>82715.65897848098</v>
       </c>
       <c r="I67" t="n">
+        <v>764920.0997913606</v>
+      </c>
+      <c r="J67" t="n">
         <v>78.8088688994349</v>
       </c>
-      <c r="J67" t="n">
+      <c r="K67" t="n">
         <v>3461.081722147488</v>
       </c>
-      <c r="K67" t="n">
+      <c r="L67" t="n">
         <v>53295.65514035165</v>
       </c>
     </row>
@@ -2830,12 +3033,15 @@
         <v>76073.20575716115</v>
       </c>
       <c r="I68" t="n">
+        <v>682204.4408128795</v>
+      </c>
+      <c r="J68" t="n">
         <v>82.92932995822112</v>
       </c>
-      <c r="J68" t="n">
+      <c r="K68" t="n">
         <v>3382.272853248053</v>
       </c>
-      <c r="K68" t="n">
+      <c r="L68" t="n">
         <v>49834.57341820417</v>
       </c>
     </row>
@@ -2865,12 +3071,15 @@
         <v>69765.0403747915</v>
       </c>
       <c r="I69" t="n">
+        <v>606131.2350557183</v>
+      </c>
+      <c r="J69" t="n">
         <v>87.31084787154337</v>
       </c>
-      <c r="J69" t="n">
+      <c r="K69" t="n">
         <v>3299.343523289832</v>
       </c>
-      <c r="K69" t="n">
+      <c r="L69" t="n">
         <v>46452.30056495612</v>
       </c>
     </row>
@@ -2900,12 +3109,15 @@
         <v>63782.42606785583</v>
       </c>
       <c r="I70" t="n">
+        <v>536366.194680927</v>
+      </c>
+      <c r="J70" t="n">
         <v>92.16768400740303</v>
       </c>
-      <c r="J70" t="n">
+      <c r="K70" t="n">
         <v>3212.032675418287</v>
       </c>
-      <c r="K70" t="n">
+      <c r="L70" t="n">
         <v>43152.95704166628</v>
       </c>
     </row>
@@ -2935,12 +3147,15 @@
         <v>58117.22315905848</v>
       </c>
       <c r="I71" t="n">
+        <v>472583.7686130711</v>
+      </c>
+      <c r="J71" t="n">
         <v>97.7419279680623</v>
       </c>
-      <c r="J71" t="n">
+      <c r="K71" t="n">
         <v>3119.864991410885</v>
       </c>
-      <c r="K71" t="n">
+      <c r="L71" t="n">
         <v>39940.92436624799</v>
       </c>
     </row>
@@ -2970,12 +3185,15 @@
         <v>52762.08035383763</v>
       </c>
       <c r="I72" t="n">
+        <v>414466.5454540126</v>
+      </c>
+      <c r="J72" t="n">
         <v>103.5537837910162</v>
       </c>
-      <c r="J72" t="n">
+      <c r="K72" t="n">
         <v>3022.123063442823</v>
       </c>
-      <c r="K72" t="n">
+      <c r="L72" t="n">
         <v>36821.0593748371</v>
       </c>
     </row>
@@ -3005,12 +3223,15 @@
         <v>47710.64650755491</v>
       </c>
       <c r="I73" t="n">
+        <v>361704.465100175</v>
+      </c>
+      <c r="J73" t="n">
         <v>109.4271041746687</v>
       </c>
-      <c r="J73" t="n">
+      <c r="K73" t="n">
         <v>2918.569279651806</v>
       </c>
-      <c r="K73" t="n">
+      <c r="L73" t="n">
         <v>33798.93631139429</v>
       </c>
     </row>
@@ -3040,12 +3261,15 @@
         <v>42957.05236222791</v>
       </c>
       <c r="I74" t="n">
+        <v>313993.8185926201</v>
+      </c>
+      <c r="J74" t="n">
         <v>115.2663525203971</v>
       </c>
-      <c r="J74" t="n">
+      <c r="K74" t="n">
         <v>2809.142175477138</v>
       </c>
-      <c r="K74" t="n">
+      <c r="L74" t="n">
         <v>30880.36703174249</v>
       </c>
     </row>
@@ -3075,12 +3299,15 @@
         <v>38495.71586512661</v>
       </c>
       <c r="I75" t="n">
+        <v>271036.7662303922</v>
+      </c>
+      <c r="J75" t="n">
         <v>121.0983983440531</v>
       </c>
-      <c r="J75" t="n">
+      <c r="K75" t="n">
         <v>2693.875822956741</v>
       </c>
-      <c r="K75" t="n">
+      <c r="L75" t="n">
         <v>28071.22485626535</v>
       </c>
     </row>
@@ -3110,12 +3337,15 @@
         <v>34321.23558581884</v>
       </c>
       <c r="I76" t="n">
+        <v>232541.0503652655</v>
+      </c>
+      <c r="J76" t="n">
         <v>127.3142031948856</v>
       </c>
-      <c r="J76" t="n">
+      <c r="K76" t="n">
         <v>2572.777424612688</v>
       </c>
-      <c r="K76" t="n">
+      <c r="L76" t="n">
         <v>25377.34903330861</v>
       </c>
     </row>
@@ -3145,12 +3375,15 @@
         <v>30428.41063867466</v>
       </c>
       <c r="I77" t="n">
+        <v>198219.8147794467</v>
+      </c>
+      <c r="J77" t="n">
         <v>134.0908138090125</v>
       </c>
-      <c r="J77" t="n">
+      <c r="K77" t="n">
         <v>2445.463221417802</v>
       </c>
-      <c r="K77" t="n">
+      <c r="L77" t="n">
         <v>22804.57160869592</v>
       </c>
     </row>
@@ -3180,12 +3413,15 @@
         <v>26812.62393115398</v>
       </c>
       <c r="I78" t="n">
+        <v>167791.4041407721</v>
+      </c>
+      <c r="J78" t="n">
         <v>140.4994224899687</v>
       </c>
-      <c r="J78" t="n">
+      <c r="K78" t="n">
         <v>2311.372407608789</v>
       </c>
-      <c r="K78" t="n">
+      <c r="L78" t="n">
         <v>20359.10838727812</v>
       </c>
     </row>
@@ -3215,12 +3451,15 @@
         <v>23469.99675696234</v>
       </c>
       <c r="I79" t="n">
+        <v>140978.780209618</v>
+      </c>
+      <c r="J79" t="n">
         <v>146.1228530166364</v>
       </c>
-      <c r="J79" t="n">
+      <c r="K79" t="n">
         <v>2170.87298511882</v>
       </c>
-      <c r="K79" t="n">
+      <c r="L79" t="n">
         <v>18047.73597966933</v>
       </c>
     </row>
@@ -3250,12 +3489,15 @@
         <v>20396.43158888343</v>
       </c>
       <c r="I80" t="n">
+        <v>117508.7834526557</v>
+      </c>
+      <c r="J80" t="n">
         <v>150.8351541951734</v>
       </c>
-      <c r="J80" t="n">
+      <c r="K80" t="n">
         <v>2024.750132102185</v>
       </c>
-      <c r="K80" t="n">
+      <c r="L80" t="n">
         <v>15876.86299455051</v>
       </c>
     </row>
@@ -3285,12 +3527,15 @@
         <v>17587.20331874726</v>
       </c>
       <c r="I81" t="n">
+        <v>97112.35186377229</v>
+      </c>
+      <c r="J81" t="n">
         <v>154.0143576759324</v>
       </c>
-      <c r="J81" t="n">
+      <c r="K81" t="n">
         <v>1873.914977907011</v>
       </c>
-      <c r="K81" t="n">
+      <c r="L81" t="n">
         <v>13852.11286244832</v>
       </c>
     </row>
@@ -3320,12 +3565,15 @@
         <v>15036.85744396536</v>
       </c>
       <c r="I82" t="n">
+        <v>79525.14854502503</v>
+      </c>
+      <c r="J82" t="n">
         <v>155.5161227953549</v>
       </c>
-      <c r="J82" t="n">
+      <c r="K82" t="n">
         <v>1719.900620231079</v>
       </c>
-      <c r="K82" t="n">
+      <c r="L82" t="n">
         <v>11978.19788454131</v>
       </c>
     </row>
@@ -3355,12 +3603,15 @@
         <v>12738.61615281253</v>
       </c>
       <c r="I83" t="n">
+        <v>64488.29110105967</v>
+      </c>
+      <c r="J83" t="n">
         <v>155.7519769977475</v>
       </c>
-      <c r="J83" t="n">
+      <c r="K83" t="n">
         <v>1564.384497435724</v>
       </c>
-      <c r="K83" t="n">
+      <c r="L83" t="n">
         <v>10258.29726431023</v>
       </c>
     </row>
@@ -3390,12 +3641,15 @@
         <v>10684.28488026863</v>
       </c>
       <c r="I84" t="n">
+        <v>51749.67494824714</v>
+      </c>
+      <c r="J84" t="n">
         <v>154.736853759478</v>
       </c>
-      <c r="J84" t="n">
+      <c r="K84" t="n">
         <v>1408.632520437977</v>
       </c>
-      <c r="K84" t="n">
+      <c r="L84" t="n">
         <v>8693.91276687451</v>
       </c>
     </row>
@@ -3425,12 +3679,15 @@
         <v>8864.718325974169</v>
       </c>
       <c r="I85" t="n">
+        <v>41065.3900679785</v>
+      </c>
+      <c r="J85" t="n">
         <v>151.8634999875858</v>
       </c>
-      <c r="J85" t="n">
+      <c r="K85" t="n">
         <v>1253.895666678498</v>
       </c>
-      <c r="K85" t="n">
+      <c r="L85" t="n">
         <v>7285.280246436532</v>
       </c>
     </row>
@@ -3460,12 +3717,15 @@
         <v>7269.871954450509</v>
       </c>
       <c r="I86" t="n">
+        <v>32200.67174200434</v>
+      </c>
+      <c r="J86" t="n">
         <v>146.0582549438827</v>
       </c>
-      <c r="J86" t="n">
+      <c r="K86" t="n">
         <v>1102.032166690913</v>
       </c>
-      <c r="K86" t="n">
+      <c r="L86" t="n">
         <v>6031.384579758034</v>
       </c>
     </row>
@@ -3495,12 +3755,15 @@
         <v>5888.229327973038</v>
       </c>
       <c r="I87" t="n">
+        <v>24930.79978755382</v>
+      </c>
+      <c r="J87" t="n">
         <v>137.9719467183971</v>
       </c>
-      <c r="J87" t="n">
+      <c r="K87" t="n">
         <v>955.9739117470299</v>
       </c>
-      <c r="K87" t="n">
+      <c r="L87" t="n">
         <v>4929.35241306712</v>
       </c>
     </row>
@@ -3530,12 +3793,15 @@
         <v>4705.785057457815</v>
       </c>
       <c r="I88" t="n">
+        <v>19042.57045958079</v>
+      </c>
+      <c r="J88" t="n">
         <v>128.8080163031786</v>
       </c>
-      <c r="J88" t="n">
+      <c r="K88" t="n">
         <v>818.0019650286328</v>
       </c>
-      <c r="K88" t="n">
+      <c r="L88" t="n">
         <v>3973.37850132009</v>
       </c>
     </row>
@@ -3565,12 +3831,15 @@
         <v>3706.791359450036</v>
       </c>
       <c r="I89" t="n">
+        <v>14336.78540212297</v>
+      </c>
+      <c r="J89" t="n">
         <v>118.4964769974078</v>
       </c>
-      <c r="J89" t="n">
+      <c r="K89" t="n">
         <v>689.1939487254542</v>
       </c>
-      <c r="K89" t="n">
+      <c r="L89" t="n">
         <v>3155.376536291458</v>
       </c>
     </row>
@@ -3600,12 +3869,15 @@
         <v>2875.028512284195</v>
       </c>
       <c r="I90" t="n">
+        <v>10629.99404267294</v>
+      </c>
+      <c r="J90" t="n">
         <v>107.0501571989965</v>
       </c>
-      <c r="J90" t="n">
+      <c r="K90" t="n">
         <v>570.6974717280465</v>
       </c>
-      <c r="K90" t="n">
+      <c r="L90" t="n">
         <v>2466.182587566003</v>
       </c>
     </row>
@@ -3635,12 +3907,15 @@
         <v>2193.75302085291</v>
       </c>
       <c r="I91" t="n">
+        <v>7754.965530388743</v>
+      </c>
+      <c r="J91" t="n">
         <v>94.84358812726215</v>
       </c>
-      <c r="J91" t="n">
+      <c r="K91" t="n">
         <v>463.6473145290499</v>
       </c>
-      <c r="K91" t="n">
+      <c r="L91" t="n">
         <v>1895.485115837957</v>
       </c>
     </row>
@@ -3670,12 +3945,15 @@
         <v>1645.730590137209</v>
       </c>
       <c r="I92" t="n">
+        <v>5561.212509535834</v>
+      </c>
+      <c r="J92" t="n">
         <v>81.47309512579383</v>
       </c>
-      <c r="J92" t="n">
+      <c r="K92" t="n">
         <v>368.8037264017878</v>
       </c>
-      <c r="K92" t="n">
+      <c r="L92" t="n">
         <v>1431.837801308908</v>
       </c>
     </row>
@@ -3705,12 +3983,15 @@
         <v>1213.629533345529</v>
       </c>
       <c r="I93" t="n">
+        <v>3915.481919398625</v>
+      </c>
+      <c r="J93" t="n">
         <v>67.47332800688672</v>
       </c>
-      <c r="J93" t="n">
+      <c r="K93" t="n">
         <v>287.3306312759939</v>
       </c>
-      <c r="K93" t="n">
+      <c r="L93" t="n">
         <v>1063.03407490712</v>
       </c>
     </row>
@@ -3740,12 +4021,15 @@
         <v>879.6208430947065</v>
       </c>
       <c r="I94" t="n">
+        <v>2701.852386053097</v>
+      </c>
+      <c r="J94" t="n">
         <v>54.24755518530374</v>
       </c>
-      <c r="J94" t="n">
+      <c r="K94" t="n">
         <v>219.8573032691072</v>
       </c>
-      <c r="K94" t="n">
+      <c r="L94" t="n">
         <v>775.7034436311255</v>
       </c>
     </row>
@@ -3775,12 +4059,15 @@
         <v>625.9319689373413</v>
       </c>
       <c r="I95" t="n">
+        <v>1822.23154295839</v>
+      </c>
+      <c r="J95" t="n">
         <v>42.81620474229355</v>
       </c>
-      <c r="J95" t="n">
+      <c r="K95" t="n">
         <v>165.6097480838035</v>
       </c>
-      <c r="K95" t="n">
+      <c r="L95" t="n">
         <v>555.8461403620182</v>
       </c>
     </row>
@@ -3810,12 +4097,15 @@
         <v>436.2479143559475</v>
       </c>
       <c r="I96" t="n">
+        <v>1196.299574021049</v>
+      </c>
+      <c r="J96" t="n">
         <v>33.26798101319612</v>
       </c>
-      <c r="J96" t="n">
+      <c r="K96" t="n">
         <v>122.79354334151</v>
       </c>
-      <c r="K96" t="n">
+      <c r="L96" t="n">
         <v>390.2363922782148</v>
       </c>
     </row>
@@ -3845,12 +4135,15 @@
         <v>296.6756050776703</v>
       </c>
       <c r="I97" t="n">
+        <v>760.0516596651011</v>
+      </c>
+      <c r="J97" t="n">
         <v>25.43324455320672</v>
       </c>
-      <c r="J97" t="n">
+      <c r="K97" t="n">
         <v>89.52556232831382</v>
       </c>
-      <c r="K97" t="n">
+      <c r="L97" t="n">
         <v>267.4428489367049</v>
       </c>
     </row>
@@ -3880,12 +4173,15 @@
         <v>195.7394425540615</v>
       </c>
       <c r="I98" t="n">
+        <v>463.3760545874307</v>
+      </c>
+      <c r="J98" t="n">
         <v>19.0205888732668</v>
       </c>
-      <c r="J98" t="n">
+      <c r="K98" t="n">
         <v>64.09231777510711</v>
       </c>
-      <c r="K98" t="n">
+      <c r="L98" t="n">
         <v>177.917286608391</v>
       </c>
     </row>
@@ -3915,12 +4211,15 @@
         <v>124.1186846807212</v>
       </c>
       <c r="I99" t="n">
+        <v>267.6366120333692</v>
+      </c>
+      <c r="J99" t="n">
         <v>13.98446736065865</v>
       </c>
-      <c r="J99" t="n">
+      <c r="K99" t="n">
         <v>45.07172890184032</v>
       </c>
-      <c r="K99" t="n">
+      <c r="L99" t="n">
         <v>113.8249688332839</v>
       </c>
     </row>
@@ -3950,12 +4249,15 @@
         <v>74.27316021423779</v>
       </c>
       <c r="I100" t="n">
+        <v>143.5179273526479</v>
+      </c>
+      <c r="J100" t="n">
         <v>10.02832431103721</v>
       </c>
-      <c r="J100" t="n">
+      <c r="K100" t="n">
         <v>31.08726154118166</v>
       </c>
-      <c r="K100" t="n">
+      <c r="L100" t="n">
         <v>68.75323993144362</v>
       </c>
     </row>
@@ -3985,12 +4287,15 @@
         <v>40.32923866481619</v>
       </c>
       <c r="I101" t="n">
+        <v>69.24476713841017</v>
+      </c>
+      <c r="J101" t="n">
         <v>11.22662273778192</v>
       </c>
-      <c r="J101" t="n">
+      <c r="K101" t="n">
         <v>21.05893723014445</v>
       </c>
-      <c r="K101" t="n">
+      <c r="L101" t="n">
         <v>37.66597839026195</v>
       </c>
     </row>
@@ -4020,12 +4325,15 @@
         <v>17.71917687064034</v>
       </c>
       <c r="I102" t="n">
+        <v>28.91552847359398</v>
+      </c>
+      <c r="J102" t="n">
         <v>5.59731902948298</v>
       </c>
-      <c r="J102" t="n">
+      <c r="K102" t="n">
         <v>9.832314492362537</v>
       </c>
-      <c r="K102" t="n">
+      <c r="L102" t="n">
         <v>16.60704116011749</v>
       </c>
     </row>
@@ -4055,12 +4363,15 @@
         <v>7.205355575560868</v>
       </c>
       <c r="I103" t="n">
+        <v>11.19635160295364</v>
+      </c>
+      <c r="J103" t="n">
         <v>2.562875013430664</v>
       </c>
-      <c r="J103" t="n">
+      <c r="K103" t="n">
         <v>4.234995462879554</v>
       </c>
-      <c r="K103" t="n">
+      <c r="L103" t="n">
         <v>6.774726667754956</v>
       </c>
     </row>
@@ -4090,12 +4401,15 @@
         <v>2.693231052082816</v>
       </c>
       <c r="I104" t="n">
+        <v>3.990996027392772</v>
+      </c>
+      <c r="J104" t="n">
         <v>1.073731976714945</v>
       </c>
-      <c r="J104" t="n">
+      <c r="K104" t="n">
         <v>1.672120449448891</v>
       </c>
-      <c r="K104" t="n">
+      <c r="L104" t="n">
         <v>2.539731204875402</v>
       </c>
     </row>
@@ -4125,12 +4439,15 @@
         <v>0.9175247929384321</v>
       </c>
       <c r="I105" t="n">
+        <v>1.297764975309955</v>
+      </c>
+      <c r="J105" t="n">
         <v>0.4062037742811834</v>
       </c>
-      <c r="J105" t="n">
+      <c r="K105" t="n">
         <v>0.5983884727339456</v>
       </c>
-      <c r="K105" t="n">
+      <c r="L105" t="n">
         <v>0.8676107554265107</v>
       </c>
     </row>
@@ -4160,12 +4477,15 @@
         <v>0.2838469050914698</v>
       </c>
       <c r="I106" t="n">
+        <v>0.3802401823715231</v>
+      </c>
+      <c r="J106" t="n">
         <v>0.1301935173847958</v>
       </c>
-      <c r="J106" t="n">
+      <c r="K106" t="n">
         <v>0.1921846984527622</v>
       </c>
-      <c r="K106" t="n">
+      <c r="L106" t="n">
         <v>0.2692222826925651</v>
       </c>
     </row>
@@ -4195,12 +4515,15 @@
         <v>0.08074501798134338</v>
       </c>
       <c r="I107" t="n">
+        <v>0.09639327728005334</v>
+      </c>
+      <c r="J107" t="n">
         <v>0.04694477789612987</v>
       </c>
-      <c r="J107" t="n">
+      <c r="K107" t="n">
         <v>0.06199118106796637</v>
       </c>
-      <c r="K107" t="n">
+      <c r="L107" t="n">
         <v>0.07703758423980286</v>
       </c>
     </row>
@@ -4230,12 +4553,15 @@
         <v>0.01564825929870996</v>
       </c>
       <c r="I108" t="n">
-        <v>0.01504640317183649</v>
+        <v>0.01564825929870996</v>
       </c>
       <c r="J108" t="n">
         <v>0.01504640317183649</v>
       </c>
       <c r="K108" t="n">
+        <v>0.01504640317183649</v>
+      </c>
+      <c r="L108" t="n">
         <v>0.01504640317183649</v>
       </c>
     </row>

--- a/exercisesLifeContingencies/survivalModels/lifeTables3/TV7377_comm.xlsx
+++ b/exercisesLifeContingencies/survivalModels/lifeTables3/TV7377_comm.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">

--- a/exercisesLifeContingencies/survivalModels/lifeTables3/TV7377_comm.xlsx
+++ b/exercisesLifeContingencies/survivalModels/lifeTables3/TV7377_comm.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="TV7377" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TV7377" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>lx</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>qx</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>exo</t>
+  </si>
+  <si>
+    <t>Dx</t>
+  </si>
+  <si>
+    <t>Nx</t>
+  </si>
+  <si>
+    <t>Sx</t>
+  </si>
+  <si>
+    <t>Cx</t>
+  </si>
+  <si>
+    <t>Mx</t>
+  </si>
+  <si>
+    <t>Rx</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,4151 +406,4123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>lx</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>dx</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>qx</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>px</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>exo</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Dx</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Nx</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Sx</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Cx</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Mx</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>100000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1168</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.01168</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.98832</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>77.00362998483266</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>100000</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>2421376.148182647</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>53356213.32372905</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>1123.076923076923</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>6870.148146821044</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>369214.0972699865</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:12">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>98832</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>95.99999868959999</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.0009713453</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.9990286547</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>76.90775253443486</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>95030.76923076922</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>2321376.148182647</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>50934837.17554642</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>88.75739523816566</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>5747.07122374412</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>362343.9491231654</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:12">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>98736.0000013104</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>59.00000288238304</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.0005975531000000001</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.9994024469</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>75.98204300744453</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>91286.98224973223</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>2226345.378951878</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>48613461.02736376</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>52.45078772401199</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>5658.313828505955</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>356596.8778994213</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:12">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>98676.99999842801</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>46.00000052906719</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.0004661674</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.9995338325999999</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>75.02717450470405</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>87723.49368317236</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>2135058.396702146</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>46387115.64841188</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>39.32099323961623</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>5605.863040781943</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>350938.5640709153</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:12">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>98630.99999789894</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>37.99999934559051</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.0003852744</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.9996147256</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>74.06193284707837</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>84310.19216365686</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>2047334.903018973</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>44252057.25170975</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>31.23322951897845</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>5566.542047542327</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>345332.7010301334</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:12">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>98592.99999855335</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>34.00000309480112</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.0003448521</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.9996551479</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>73.09028530009319</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>81036.25923553569</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>1963024.710855317</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>42204722.34869077</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>26.87069632069123</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>5535.308818023349</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>339766.1589825911</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:12">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>98558.99999545855</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>30.99999881017157</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.0003145324</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.9996854676</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>72.11532684804892</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>77892.60933784823</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1881988.451619781</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>40241697.63783546</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>23.55745130509213</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>5508.438121702658</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>334230.8501645677</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:12">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>98527.99999664837</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>29.00000241181351</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.0002943326</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.9997056674</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>71.13785927585781</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>74873.18229662591</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>1804095.842281933</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>38359709.18621568</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>21.19001770734603</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>5484.880670397565</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>328722.4120428651</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:12">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>98498.99999423655</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>27.00000413392016</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.0002741145</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.9997258855</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>70.158656421915</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>71972.25449827909</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>1729222.659985307</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>36555613.34393375</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>18.96984476506588</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>5463.690652690218</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>323237.5313724675</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:12">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>98471.99999010263</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>25.00000242708726</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.0002538793</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.9997461207</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>69.17775610519088</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>69185.12101896481</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>1657250.405487027</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>34826390.68394843</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>16.88910586029814</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>5444.720807925152</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>317773.8407197773</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:12">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>98446.99998767555</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>22.99999540252066</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.0002336282</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>0.9997663718000001</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>68.19519639356463</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>66507.2657200674</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>1588065.284468063</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>33169140.2784614</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>14.94035843952024</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>5427.831702064856</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>312329.1199118521</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:12">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>98423.99999227303</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>22.99999590539434</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.0002336828</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>0.9997663172</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>67.21101559625855</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>63934.35360316375</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>1521558.018747995</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>31581074.99399334</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>14.36572958286288</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>5412.891343625334</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>306901.2882097873</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:12">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>98400.99999636764</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>22.00000357418789</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.000223575</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>0.999776425</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>66.22660845695729</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>61460.97427345921</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>1457623.665144832</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>30059516.97524535</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>13.21263204152754</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>5398.525614042473</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>301488.396866162</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:12">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>98378.99999279344</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>25.00000261286868</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.0002541193</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>0.9997458807</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>65.2413065695736</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>59083.87801551538</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>1396162.690871372</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>28601893.31010051</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>14.43687857941169</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>5385.312982000945</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>296089.8712521194</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:12">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>98353.99999018057</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>29.99999608940487</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.0003050206</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>0.9996949794</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>64.25776276691749</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>56796.98429018537</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>1337078.812855857</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>27205730.61922914</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>16.65793290998358</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>5370.876103421533</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>290704.5582701184</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:12">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>98323.99999409117</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>38.00000387531637</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.0003864774</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>0.9996135226</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>63.27721613164828</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>54595.82696149903</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>1280281.828565672</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>25868651.80637328</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>20.28851274512504</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>5354.21817051155</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>285333.682166697</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:12">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>98285.99999021585</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>47.00000153712126</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.0004781963</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>0.9995218037</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>62.30148748724849</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>52475.6989502347</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>1225686.001604173</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>24588369.97780761</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>24.12854334415011</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>5333.929657766424</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>279979.4639961854</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:12">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>98238.99998867873</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>56.9999967998312</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.0005802176</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>0.9994197824</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>61.33105486891191</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>50433.27429341999</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>1173210.302653938</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>23362683.97620344</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>28.13680131795176</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>5309.801114422274</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>274645.5343384189</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:12">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>98181.9999918789</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>63.00000211578897</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.0006416655</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0.9993583345</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>60.36637060838702</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>48465.39617312433</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>1122777.028360518</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>22189473.6735495</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>29.90247371935184</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>5281.664313104322</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>269335.7332239967</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:12">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>98118.99998976311</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>64.00000162812279</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.0006522692</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>0.9993477307999999</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>59.40480945790022</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>46571.44000043866</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>1074311.632187393</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>21066696.64518898</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>29.20876529993665</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>5251.76183938497</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>264054.0689108924</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:12">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>98054.99998813498</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>61.99999999349777</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.0006322982</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>0.9993677018</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>58.44325632855104</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>44751.02200435261</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>1027740.192186955</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>19992385.01300159</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>27.20768332837745</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>5222.553074085034</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>258802.3070715074</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:12">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>97992.99998814148</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>60.99999573881816</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.0006224934</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>0.9993775066</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>57.47991692565929</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>43002.62116701067</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>982989.1701826022</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>18964644.82081464</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>25.73927678765811</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>5195.345390756657</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>253579.7539974224</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:12">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>97931.99999240266</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>58.99999519702292</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0.0006024588</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>0.9993975412</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>56.51540864123676</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>41322.93492226105</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>939986.5490155915</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>17981655.65063203</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>23.93785171706105</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>5169.606113968999</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>248384.4086066657</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:12">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>97872.99999720564</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>57.99999980144405</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.0005926047</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>0.9994073953</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>55.54917596052692</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>39709.6534196878</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>898663.6140933305</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>17041669.10161644</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>22.62704543449813</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>5145.668262251937</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>243214.8024926967</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:12">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>97814.9999974042</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>60.00000466190772</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.0006134029</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>0.9993865971</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>54.5818177045832</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>38159.73201195761</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>858953.9606736427</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>16143005.48752311</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>22.50700988399772</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>5123.041216817439</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>238069.1342304448</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:12">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>97754.99999274229</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>59.00000091911961</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.0006035497</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>0.9993964503</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>53.61501200988361</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>36669.5430016137</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>820794.228661685</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>15284051.52684947</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>21.28066507477024</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>5100.534206933441</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>232946.0930136273</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:12">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>97695.99999182318</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>59.99999839497821</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.00061415</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>0.99938585</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>52.64708891945682</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>35237.89529801533</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>784124.6856600713</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>14463257.29818778</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>20.80899365122703</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>5079.25354185867</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>227845.5588066939</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:12">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>97635.9999934282</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>61.00000466149414</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.0006247696</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>0.9993752304</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>51.67913473505436</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>33861.78263905582</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>748886.7903620561</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>13679132.61252771</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>20.34212730258639</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>5058.444548207444</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>222766.3052648352</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:12">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>97574.99998876669</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>66.00000320240177</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.0006764028</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>0.9993235972</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>50.71112989219265</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>32539.06425640492</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>715025.0077230004</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>12930245.82216565</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>21.1629943965502</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>5038.102420904858</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>217707.8607166278</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:12">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>97508.99998556428</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>70.00000468213686</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>0.0007178825</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>0.9992821175</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>49.74511582922587</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>31266.39879060817</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>682485.9434665953</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>12215220.81444265</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>21.58230820172959</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>5016.939426508308</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>212669.7582957229</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:12">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>97438.99998088214</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>71.99999613407336</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.0007389238</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>0.9992610762</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>48.78049343305281</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>30042.26268276767</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>651219.5446759871</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>11532734.87097606</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>21.34513740591238</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>4995.357118306578</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>207652.8188692147</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:12">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>97366.99998474808</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>77.00000460873844</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>0.0007908224</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>0.9992091776000001</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>47.81619541977393</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>28865.44590371685</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>621177.2819932194</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>10881515.32630007</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>21.94946269869954</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>4974.011980900666</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>202657.461750908</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:12">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>97289.99998013934</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>82.00000087326062</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>0.000842841</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>0.999157159</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>46.85364374196669</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>27733.28698318288</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>592311.8360895026</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>10260338.04430685</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>22.47572243672388</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>4952.062518201967</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>197683.4497700074</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:12">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>97207.99997926608</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>88.00000134363009</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>0.0009052753</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>0.9990947247</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>45.89274544993446</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>26644.14637677758</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>564578.5491063197</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>9668026.208217349</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>23.19258423507811</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>4929.586795765241</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>192731.3872518054</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:12">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>97119.99997792246</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>94.99999663440438</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.0009781713</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>0.9990218287</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>44.93387561531228</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>25596.17893189722</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>537934.4027295421</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>9103447.659111029</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>24.07446886619856</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>4906.394211530163</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>187801.8004560402</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:12">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>97024.99998128806</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>103.0000032326357</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.0010615821</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>0.9989384179</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>43.97738211399532</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>24587.63604257342</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>512338.2237976448</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>8565513.256381489</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>25.09787913856806</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>4882.319742663965</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>182895.40624451</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:12">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>96921.99997805542</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>109.9999955854944</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.0011349332</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>0.9988650668</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>43.02358597379291</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>23616.85985410511</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>487750.5877550714</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>8053175.032583844</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>25.772652238626</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>4857.221863525398</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>178013.086501846</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:12">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>96811.99998246992</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>121.0000037992901</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.0012498451</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>0.9987501549</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>42.07190223903114</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>22682.74643824705</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>464133.7279009663</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>7565424.444828771</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>27.25953797152454</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>4831.449211286772</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>173155.8646383206</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:12">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>96690.99997867063</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>129.9999955394229</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.0013444891</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>0.9986555109</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>41.12392569860832</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>21783.07357572757</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>441450.9814627193</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>7101290.716927806</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>28.16067787217666</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>4804.189673315247</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>168324.4154270339</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:12">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>96560.99998313122</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>141.9999994281932</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.001470573</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>0.998529427</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>40.17861765665075</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>20917.10237571202</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>419667.9078869918</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>6659839.735465087</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>29.57704422303648</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>4776.028995443071</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>163520.2257537186</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:12">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>96418.99998370302</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>156.0000025632325</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.0016179384</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>0.9983820616</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>39.23705389520858</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>20083.02139396159</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>398750.8055112797</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>6240171.827578095</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>31.24335721279999</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>4746.451951220033</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>158744.1967582756</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:12">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>96262.99998113979</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>168.9999966078889</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.001755607</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>0.998244393</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>38.29982962947958</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>19279.35413698104</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>378667.7841173181</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>5841421.022066814</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>32.54516257534891</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>4715.208594007234</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>153997.7448070555</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:12">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>96093.9999845319</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>184.0000031995818</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.0019147918</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>0.9980852082</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>37.36630798484192</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>18505.29535375257</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>359388.4299803372</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>5462753.237949496</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>34.07094980763799</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>4682.663431431885</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>149282.5362130483</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:12">
+      <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>95909.99998133232</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>202.9999984764886</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.0021165676</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>0.9978834324</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>36.43703471603249</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>17759.48227495445</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>340883.1346265846</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>5103364.80796916</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>36.14340843840662</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>4648.592481624246</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>144599.8727816164</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:12">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>95706.99998285584</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>222.0000047374328</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.0023195796</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>0.9976804204</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>35.51325921365451</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>17040.28185594087</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>323123.65235163</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>4762481.673342575</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>38.00604824162556</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>4612.44907318584</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>139951.2802999922</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:12">
+      <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>95484.9999781184</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>240.0000005880009</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.0025134838</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>0.9974865162</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>34.59466408052455</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>16346.88035170152</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>306083.3704956892</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>4439358.020990945</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>39.5073259082116</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>4574.443024944216</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>135338.8312268063</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:12">
+      <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>95244.9999775304</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>262.0000030851906</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.0027508006</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>0.9972491994</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>33.68057640559468</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>15678.64685842017</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>289736.4901439877</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>4133274.650495256</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>41.47002998589453</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>4534.935699036003</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48">
         <v>130764.3882018621</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:12">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>94982.99997444521</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>284.9999962960219</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>0.0030005369</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>0.9969994631</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>32.77210132187415</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>15034.15194926427</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>274057.8432855675</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>3843538.160351268</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>43.37550738843688</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>4493.46566905011</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49">
         <v>126229.4525028261</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:12">
+      <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>94697.99997814918</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>310.0000014796699</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>0.0032735644</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>0.9967264356</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>31.86922638005195</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>14412.53982844259</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>259023.6913363033</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>3569480.317065701</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>45.36574739997285</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>4450.090161661672</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>121735.986833776</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:12">
+      <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>94387.99997666951</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>332.0000018823374</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>0.0035173963</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>0.9964826037</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>30.97225282649255</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>13812.84562610251</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>244611.1515078606</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>3310456.625729397</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>46.716588555504</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>4404.724414261698</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>117285.8966721143</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:12">
+      <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>94055.99997478718</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>353.9999967563061</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>0.0037637152</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>0.9962362848</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>30.07981415164423</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>13234.86574423537</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>230798.3058817581</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>3065845.474221537</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>47.89640901109422</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>4358.007825706194</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52">
         <v>112881.1722578526</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:12">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>93701.99997803087</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>379.9999996203062</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>0.0040554097</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>0.9959445903</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>29.19156474518748</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>12677.93603736907</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>217563.4401375228</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>2835047.168339779</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>49.43675459800586</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>4310.111416695099</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53">
         <v>108523.1644321464</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:12">
+      <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>93321.99997841057</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>411.9999999242865</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>0.0044148218</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>0.9955851782</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>28.30839458804124</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>12140.88635825687</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>204885.5041001537</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>2617483.728202256</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>51.53831708245677</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>4260.674662097095</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54">
         <v>104213.0530154513</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:12">
+      <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>92909.99997848629</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>444.9999984799583</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>0.0047895813</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>0.9952104187</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>27.43170810188067</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>11622.39087354915</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>192744.6177418969</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>2412598.224102103</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>53.5253711435016</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>4209.136345014638</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>99952.37835335422</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:12">
+      <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>92464.99998000634</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>477.9999995706423</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>0.0051695236</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>0.9948304764</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>26.56132049648393</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>11121.8504688076</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>181122.2268683477</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>2219853.606360205</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>55.28333507131919</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>4155.610973871137</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56">
         <v>95743.2420083396</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:12">
+      <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>91986.99998043569</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>509.0000010139431</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>0.0055333906</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>0.9944666094</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>25.69674518898155</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>10638.80365416676</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>170000.3763995401</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>2038731.379491858</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>56.60447705308846</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>4100.327638799818</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L57">
         <v>91587.63103446843</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:12">
+      <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>91477.99997942174</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>540.0000036371254</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>0.0059030587</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>0.9940969413</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>24.83694439895143</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>10173.01442118418</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>159361.5727453733</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>1868731.003092318</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>57.74221277326608</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>4043.723161746728</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L58">
         <v>87487.30339566863</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:12">
+      <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>90937.99997578462</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>574.0000010935527</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>0.0063119928</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>0.9936880071999999</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>23.98145989376602</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>9724.002422980751</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>149188.5583241891</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>1709369.430346945</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>59.01714738561255</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>3985.980948973462</v>
       </c>
-      <c r="L59" t="n">
+      <c r="L59">
         <v>83443.58023392191</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:12">
+      <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>90363.99997469106</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>610.0000040567526</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>0.0067504759</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>0.9932495241</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>23.13061617290899</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>9290.98518240357</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>139464.5559012084</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>1560180.872022755</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>60.30631880872345</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>3926.96380158785</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L60">
         <v>79457.59928494845</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:12">
+      <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>89753.99997063431</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>647.9999962485875</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>0.0072197339</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>0.9927802661</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>22.28442186359462</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>8873.333279656246</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>130173.5707188048</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>1420716.316121547</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>61.59913950493497</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>3866.657482779126</v>
       </c>
-      <c r="L61" t="n">
+      <c r="L61">
         <v>75530.63548336059</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:12">
+      <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>89105.99997438572</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>688.999999654141</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>0.0077323637</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>0.9922676363</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>21.44284335361712</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>8470.452090933763</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>121300.2374391486</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>1290542.745402742</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>62.97751564473587</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>3805.058343274191</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62">
         <v>71663.97800058147</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:12">
+      <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>88416.99997473157</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>742.9999958497604</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>0.0084033613</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>0.9915966387</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>20.60604295400531</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>8081.687956406958</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>112829.7853482148</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>1169242.507963593</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>65.30129212648684</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>3742.080827629455</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L63">
         <v>67858.91965730727</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:12">
+      <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>87673.99997888181</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>812.0000014442121</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>0.0092615827</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>0.9907384173</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>19.77643314762006</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>7705.552512110972</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>104748.0973918079</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>1056412.722615379</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>68.62078061548895</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>3676.779535502968</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L64">
         <v>64116.83882967781</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:12">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>86861.9999774376</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>885.0000014201213</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>0.010188575</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>0.989811425</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>18.95663235726032</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>7340.564327183522</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>97042.5448796969</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>951664.6252235707</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>71.91335595176331</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>3608.158754887479</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L65">
         <v>60440.05929417485</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:12">
+      <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>85976.99997601748</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>961.9999972369587</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>0.0111890389</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>0.9888109611</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>18.14661479054995</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>6986.321574032392</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>89701.98055251337</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>854622.0803438739</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>75.16367678822851</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>3536.245398935715</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L66">
         <v>56831.90053928737</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:12">
+      <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>85014.99997878053</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>1048.999999723173</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>0.012338999</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>0.987661001</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>17.3462977098464</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>6642.45322131984</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>82715.65897848098</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>764920.0997913606</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>78.8088688994349</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>3461.081722147488</v>
       </c>
-      <c r="L67" t="n">
+      <c r="L67">
         <v>53295.65514035165</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:12">
+      <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>83965.99997905735</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>1148.000003689868</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>0.0136722007</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>0.9863277993</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>16.55676106760279</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>6308.165382369642</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>76073.20575716115</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>682204.4408128795</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>82.92932995822112</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>3382.272853248053</v>
       </c>
-      <c r="L68" t="n">
+      <c r="L68">
         <v>49834.57341820417</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:12">
+      <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>82817.99997536748</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>1257.000000824331</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>0.0151778599</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>0.9848221401</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>15.7793354085714</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>5982.614306935664</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>69765.0403747915</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>606131.2350557183</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>87.31084787154337</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>3299.343523289832</v>
       </c>
-      <c r="L69" t="n">
+      <c r="L69">
         <v>46452.30056495612</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:12">
+      <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>81560.99997454316</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>1379.999999604674</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>0.0169198514</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>0.9830801486</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>15.01481712933456</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>5665.202908797365</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>63782.42606785583</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>536366.194680927</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>92.16768400740303</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>3212.032675418287</v>
       </c>
-      <c r="L70" t="n">
+      <c r="L70">
         <v>43152.95704166628</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:12">
+      <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>80180.99997493849</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>1521.999999135381</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>0.0189820531</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>0.9810179469</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>14.26463251750638</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>5355.142805220831</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>58117.22315905848</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>472583.7686130711</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>97.7419279680623</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>3119.864991410885</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L71">
         <v>39940.92436624799</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:12">
+      <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>78658.9999758031</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>1676.999999913725</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>0.0213198744</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>0.9786801256</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>13.53096911835546</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>5051.433846282737</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>52762.08035383763</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>414466.5454540126</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>103.5537837910162</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>3022.123063442823</v>
       </c>
-      <c r="L72" t="n">
+      <c r="L72">
         <v>36821.0593748371</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:12">
+      <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>76981.99997588937</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>1843.000003015776</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>0.0239406615</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>0.9760593385</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>12.81483983121305</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>4753.594145326999</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>47710.64650755491</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>361704.465100175</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>109.4271041746687</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>2918.569279651806</v>
       </c>
-      <c r="L73" t="n">
+      <c r="L73">
         <v>33798.93631139429</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:12">
+      <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>75138.9999728736</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>2019.000002154508</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>0.0268702006</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>0.9731297994</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>12.11689668390284</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>4461.336497101292</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>42957.05236222791</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>313993.8185926201</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>115.2663525203971</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>2809.142175477138</v>
       </c>
-      <c r="L74" t="n">
+      <c r="L74">
         <v>30880.36703174249</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:12">
+      <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>73119.99997071909</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>2205.999995820607</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>0.0301695842</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>0.9698304158</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>11.43766411332325</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>4174.480279307768</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>38495.71586512661</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>271036.7662303922</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>121.0983983440531</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>2693.875822956741</v>
       </c>
-      <c r="L75" t="n">
+      <c r="L75">
         <v>28071.22485626535</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:12">
+      <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>70913.99997489847</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>2412.000001474821</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>0.0340130299</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>0.9659869701</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>10.77791409212602</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>3892.824947144184</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>34321.23558581884</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>232541.0503652655</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>127.3142031948856</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>2572.777424612688</v>
       </c>
-      <c r="L76" t="n">
+      <c r="L76">
         <v>25377.34903330861</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:12">
+      <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>68501.99997342365</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>2641.999999908998</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>0.038568217</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>0.961431783</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>10.13980613637266</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>3615.786707520675</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>30428.41063867466</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>198219.8147794467</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>134.0908138090125</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>2445.463221417802</v>
       </c>
-      <c r="L77" t="n">
+      <c r="L77">
         <v>22804.57160869592</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:12">
+      <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>65859.99997351466</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>2879.000001624222</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>0.0437139387</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>0.9562860613</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>9.52651077988407</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>3342.627174191637</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>26812.62393115398</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>167791.4041407721</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>140.4994224899687</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78">
         <v>2311.372407608789</v>
       </c>
-      <c r="L78" t="n">
+      <c r="L78">
         <v>20359.10838727812</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:12">
+      <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>62980.99997189044</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>3114.000001433165</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>0.049443483</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>0.950556517</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>8.939132436598728</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>3073.565168078913</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>23469.99675696234</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>140978.780209618</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>146.1228530166364</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79">
         <v>2170.87298511882</v>
       </c>
-      <c r="L79" t="n">
+      <c r="L79">
         <v>18047.73597966933</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:12">
+      <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>59866.99997045727</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>3342.999996992421</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>0.0558404463</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>0.9441595537</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>8.378096447366453</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>2809.228270136164</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>20396.43158888343</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>117508.7834526557</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>150.8351541951734</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>2024.750132102185</v>
       </c>
-      <c r="L80" t="n">
+      <c r="L80">
         <v>15876.86299455051</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:12">
+      <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>56523.99997346485</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>3549.999998305855</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>0.0628051801</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>0.9371948199</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>7.844030854206301</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>2550.345874781908</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>17587.20331874726</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>97112.35186377229</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>154.0143576759324</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>1873.914977907011</v>
       </c>
-      <c r="L81" t="n">
+      <c r="L81">
         <v>13852.11286244832</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:12">
+      <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>52973.99997515899</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>3727.999997861035</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>0.0703741458</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>0.9296258542</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>7.336183788329006</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>2298.241291152824</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>15036.85744396536</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>79525.14854502503</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>155.5161227953549</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>1719.900620231079</v>
       </c>
-      <c r="L82" t="n">
+      <c r="L82">
         <v>11978.19788454131</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:12">
+      <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>49245.99997729796</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>3882.999999335566</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>0.0788490436</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>0.9211509564</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>6.85369370101261</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>2054.331272543899</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>12738.61615281253</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>64488.29110105967</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>155.7519769977475</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>1564.384497435724</v>
       </c>
-      <c r="L83" t="n">
+      <c r="L83">
         <v>10258.29726431023</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:12">
+      <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>45362.99997796239</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>4011.999996482147</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>0.0884421224</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>0.9115578776</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>6.397559685378631</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>1819.566554294463</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>10684.28488026863</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>51749.67494824714</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>154.736853759478</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>1408.632520437977</v>
       </c>
-      <c r="L84" t="n">
+      <c r="L84">
         <v>8693.91276687451</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:12">
+      <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>41350.99998148024</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>4094.999998239184</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>0.0990302532</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>0.9009697468</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>5.969758893320138</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>1594.846371523659</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>8864.718325974169</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>41065.3900679785</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>151.8634999875858</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>1253.895666678498</v>
       </c>
-      <c r="L85" t="n">
+      <c r="L85">
         <v>7285.280246436532</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:12">
+      <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>37255.99998324106</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>4095.999999594288</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>0.1099420228</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>0.8900579772</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>5.570968434564243</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>1381.642626477471</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>7269.871954450509</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>32200.67174200434</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>146.0582549438827</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86">
         <v>1102.032166690913</v>
       </c>
-      <c r="L86" t="n">
+      <c r="L86">
         <v>6031.384579758034</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:12">
+      <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>33159.99998364678</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>4023.99999696352</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>0.1213510253</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>0.8786489747</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>5.197346200431585</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>1182.444270515224</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>5888.229327973038</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>24930.79978755382</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>137.9719467183971</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>955.9739117470299</v>
       </c>
-      <c r="L87" t="n">
+      <c r="L87">
         <v>4929.35241306712</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:12">
+      <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>29135.99998668326</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>3906.999997627088</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>0.1340952773</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>0.8659047227</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>4.846101043406343</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>998.9936980077799</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>4705.785057457815</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>19042.57045958079</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>128.8080163031786</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>818.0019650286328</v>
       </c>
-      <c r="L88" t="n">
+      <c r="L88">
         <v>3973.37850132009</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:12">
+      <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>25228.99998905617</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>3737.999998605032</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>0.1481628285</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>0.8518371714999999</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>4.519144635052518</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>831.7628471658404</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>3706.791359450036</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>14336.78540212297</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>118.4964769974078</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>689.1939487254542</v>
       </c>
-      <c r="L89" t="n">
+      <c r="L89">
         <v>3155.376536291458</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:12">
+      <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>21490.99999045114</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>3511.999997839951</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>0.1634172444</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>0.8365827556000001</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>4.218207621739736</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>681.275491431285</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>2875.028512284195</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>10629.99404267294</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>107.0501571989965</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K90">
         <v>570.6974717280465</v>
       </c>
-      <c r="L90" t="n">
+      <c r="L90">
         <v>2466.182587566003</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:12">
+      <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>17978.99999261119</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>3235.999998636605</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>0.1799877635</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>0.8200122365</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>3.944518604824726</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>548.0224307157005</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>2193.75302085291</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>7754.965530388743</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>94.84358812726215</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K91">
         <v>463.6473145290499</v>
       </c>
-      <c r="L91" t="n">
+      <c r="L91">
         <v>1895.485115837957</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:12">
+      <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>14742.99999397458</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>2890.999998615758</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>0.1960930611</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>0.8039069389</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>3.700569761649801</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>432.1010567916806</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>1645.730590137209</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>5561.212509535834</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>81.47309512579383</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K92">
         <v>368.8037264017878</v>
       </c>
-      <c r="L92" t="n">
+      <c r="L92">
         <v>1431.837801308908</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:12">
+      <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>11851.99999535883</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>2489.999999487731</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>0.2100911239</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>0.7899088760999999</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>3.481268983732368</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>334.0086902508221</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>1213.629533345529</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>3915.481919398625</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>67.47332800688672</v>
       </c>
-      <c r="K93" t="n">
+      <c r="K93">
         <v>287.3306312759939</v>
       </c>
-      <c r="L93" t="n">
+      <c r="L93">
         <v>1063.03407490712</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:12">
+      <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>9361.999995871096</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>2081.999999534979</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>0.2223883786</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>0.7776116214</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>3.274193548060532</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>253.6888741573653</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>879.6208430947065</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>2701.852386053097</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>54.24755518530374</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K94">
         <v>219.8573032691072</v>
       </c>
-      <c r="L94" t="n">
+      <c r="L94">
         <v>775.7034436311255</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:12">
+      <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>7279.999996336116</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>1708.999999483893</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>0.2347527473</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>0.7652472527</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>3.067582417384551</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>189.6840545813936</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>625.9319689373413</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>1822.23154295839</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95">
         <v>42.81620474229355</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K95">
         <v>165.6097480838035</v>
       </c>
-      <c r="L95" t="n">
+      <c r="L95">
         <v>555.8461403620182</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:12">
+      <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>5570.999996852223</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>1380.999999221095</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>0.2478908634</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>0.7521091366</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>2.855232453727111</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>139.5723092782772</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>436.2479143559475</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>1196.299574021049</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96">
         <v>33.26798101319612</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96">
         <v>122.79354334151</v>
       </c>
-      <c r="L96" t="n">
+      <c r="L96">
         <v>390.2363922782148</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:12">
+      <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>4189.999997631128</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>1097.999999519231</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>0.262052506</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>0.7379474939999999</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>2.631503579884993</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>100.9361625236089</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>296.6756050776703</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>760.0516596651011</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>25.43324455320672</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97">
         <v>89.52556232831382</v>
       </c>
-      <c r="L97" t="n">
+      <c r="L97">
         <v>267.4428489367049</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:12">
+      <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>3091.999998111897</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>853.9999995365122</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>0.2761966365</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>0.7238033635000001</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>2.388421733545441</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>71.62075787334027</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>195.7394425540615</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>463.3760545874307</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>19.0205888732668</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K98">
         <v>64.09231777510711</v>
       </c>
-      <c r="L98" t="n">
+      <c r="L98">
         <v>177.917286608391</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:12">
+      <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>2237.999998575385</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>652.9999994773282</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>0.2917783735</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>0.7082216265</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>2.109025916118778</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>49.84552446648345</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>124.1186846807212</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>267.6366120333692</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>13.98446736065865</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K99">
         <v>45.07172890184032</v>
       </c>
-      <c r="L99" t="n">
+      <c r="L99">
         <v>113.8249688332839</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:12">
+      <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>1584.999999098057</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>486.9999997153729</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>0.3072555205</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>0.6927444795</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>1.771924290240207</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>33.94392154942158</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>74.27316021423779</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>143.5179273526479</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>10.02832431103721</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K100">
         <v>31.08726154118166</v>
       </c>
-      <c r="L100" t="n">
+      <c r="L100">
         <v>68.75323993144362</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:12">
+      <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>1097.999999382684</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>566.9999996560218</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>0.5163934426</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>0.4836065574</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>1.336065573785937</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>22.61006179417585</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>40.32923866481619</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>69.24476713841017</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101">
         <v>11.22662273778192</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K101">
         <v>21.05893723014445</v>
       </c>
-      <c r="L101" t="n">
+      <c r="L101">
         <v>37.66597839026195</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:12">
+      <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>530.9999997266618</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>293.9999998570602</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>0.5536723164</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>0.4463276836</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>1.228813559271925</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>10.51382129507947</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>17.71917687064034</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I102">
         <v>28.91552847359398</v>
       </c>
-      <c r="J102" t="n">
+      <c r="J102">
         <v>5.59731902948298</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K102">
         <v>9.832314492362537</v>
       </c>
-      <c r="L102" t="n">
+      <c r="L102">
         <v>16.60704116011749</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:12">
+      <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>236.9999998696016</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>139.9999999281714</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>0.5907172996</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>0.4092827004</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>1.13291139235067</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>4.512124523478051</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>7.205355575560868</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103">
         <v>11.19635160295364</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103">
         <v>2.562875013430664</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K103">
         <v>4.234995462879554</v>
       </c>
-      <c r="L103" t="n">
+      <c r="L103">
         <v>6.774726667754956</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:12">
+      <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>96.99999994143019</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>60.99999996496744</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>0.6288659794</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>0.3711340206</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>1.04639175252732</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>1.775706259144384</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>2.693231052082816</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104">
         <v>3.990996027392772</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J104">
         <v>1.073731976714945</v>
       </c>
-      <c r="K104" t="n">
+      <c r="K104">
         <v>1.672120449448891</v>
       </c>
-      <c r="L104" t="n">
+      <c r="L104">
         <v>2.539731204875402</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:12">
+      <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>35.99999997646275</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>23.9999999855085</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>0.6666666667</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>0.3333333333</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>0.9722222221611112</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>0.6336778878469623</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>0.9175247929384321</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105">
         <v>1.297764975309955</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105">
         <v>0.4062037742811834</v>
       </c>
-      <c r="K105" t="n">
+      <c r="K105">
         <v>0.5983884727339456</v>
       </c>
-      <c r="L105" t="n">
+      <c r="L105">
         <v>0.8676107554265107</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:12">
+      <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>11.99999999095425</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>7.999999994369501</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>0.6666666667</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>0.3333333333</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>0.9166666666250001</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>0.2031018871101264</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>0.2838469050914698</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106">
         <v>0.3802401823715231</v>
       </c>
-      <c r="J106" t="n">
+      <c r="J106">
         <v>0.1301935173847958</v>
       </c>
-      <c r="K106" t="n">
+      <c r="K106">
         <v>0.1921846984527622</v>
       </c>
-      <c r="L106" t="n">
+      <c r="L106">
         <v>0.2692222826925651</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:12">
+      <c r="A107">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>3.999999996584751</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>2.999999997438564</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>0.75</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>0.25</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>0.75</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>0.06509675868263343</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>0.08074501798134338</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107">
         <v>0.09639327728005334</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107">
         <v>0.04694477789612987</v>
       </c>
-      <c r="K107" t="n">
+      <c r="K107">
         <v>0.06199118106796637</v>
       </c>
-      <c r="L107" t="n">
+      <c r="L107">
         <v>0.07703758423980286</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:12">
+      <c r="A108">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>0.9999999991461879</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>0.9999999991461879</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>1</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>0</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>0.5</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>0.01564825929870996</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>0.01564825929870996</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108">
         <v>0.01564825929870996</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108">
         <v>0.01504640317183649</v>
       </c>
-      <c r="K108" t="n">
+      <c r="K108">
         <v>0.01504640317183649</v>
       </c>
-      <c r="L108" t="n">
+      <c r="L108">
         <v>0.01504640317183649</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>